--- a/Python/excel2image/参数.xlsx
+++ b/Python/excel2image/参数.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="14620"/>
+    <workbookView windowHeight="17460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>产品名称</t>
   </si>
@@ -46,7 +46,8 @@
     <t>X50711</t>
   </si>
   <si>
-    <t>0.5m</t>
+    <t>●规格说明一。
+●规格说明二。</t>
   </si>
 </sst>
 </file>
@@ -54,9 +55,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -131,18 +132,41 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -156,7 +180,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -164,43 +211,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -214,25 +224,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -265,13 +266,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -283,61 +410,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -349,91 +434,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -486,11 +487,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -505,36 +512,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -559,129 +536,153 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -690,13 +691,13 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1054,12 +1055,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelRow="1" outlineLevelCol="7"/>
@@ -1067,7 +1068,8 @@
     <col min="1" max="1" width="9.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="14.125" style="3" customWidth="1"/>
     <col min="3" max="3" width="9.75" style="1" customWidth="1"/>
-    <col min="4" max="5" width="9.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.1153846153846" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.625" style="1" customWidth="1"/>
     <col min="6" max="6" width="14" style="1" customWidth="1"/>
     <col min="7" max="7" width="5.625" style="1" customWidth="1"/>
     <col min="8" max="8" width="8.75" style="1" customWidth="1"/>
@@ -1102,7 +1104,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="18" spans="1:8">
+    <row r="2" s="2" customFormat="1" ht="36" spans="1:8">
       <c r="A2" s="7" t="s">
         <v>8</v>
       </c>
